--- a/data/trans_dic/P2B_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P2B_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares</t>
+          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>1,22%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 25,7</t>
+          <t>0,37; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 26,91</t>
+          <t>0,43; 2,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 43,95</t>
+          <t>0,79; 2,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 32,51</t>
+          <t>0,69; 2,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,81; 31,02</t>
+          <t>0,77; 1,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 24,15</t>
+          <t>0,74; 1,86</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,83</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 86,9</t>
+          <t>0,22; 2,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 30,1</t>
+          <t>0,16; 1,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 37,65</t>
+          <t>0,34; 2,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 24,94</t>
+          <t>0,17; 1,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 68,85</t>
+          <t>0,43; 1,62</t>
         </is>
       </c>
     </row>
@@ -761,7 +762,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,22 +772,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,5</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,23; 80,17</t>
+          <t>0,99; 6,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 56,16</t>
+          <t>1,13; 7,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,24; 45,41</t>
+          <t>0,71; 3,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 40,9</t>
+          <t>0,58; 3,64</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 21,19</t>
+          <t>0,33; 1,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 47,71</t>
+          <t>0,45; 1,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 37,44</t>
+          <t>0,81; 1,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 29,35</t>
+          <t>0,89; 2,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 25,84</t>
+          <t>0,66; 1,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 36,52</t>
+          <t>0,77; 1,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14879</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17024</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26399</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25127</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41278</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42151</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6101; 29583</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7132; 34755</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14148; 45161</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12407; 44081</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26406; 64140</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25542; 64505</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4950</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8534</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12776</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13483</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24054</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17454</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3030; 27610</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2228; 22495</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4744; 27924</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4814; 29837</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11991; 44783</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2339</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11291</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13010</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13630</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11956</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4089; 26255</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4645; 29892</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5932; 30079</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4836; 30376</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22168</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28302</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>46224</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>50913</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>68391</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>79215</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11333; 39246</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15489; 51185</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29423; 69037</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>32331; 77352</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46348; 95863</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>54647; 112617</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>